--- a/Astronomical image processing/Data/file_1.xlsx
+++ b/Astronomical image processing/Data/file_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tolbran.000\Desktop\New folder\Astronomical image processing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C11331B-E78E-49FD-A8D5-BB8C68040B87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91688189-E2E6-4571-ABAB-0934BAB47A06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="0" windowWidth="26370" windowHeight="13770" xr2:uid="{6DBE50B7-068A-47F7-B20C-A941B8E2CFCC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DBE50B7-068A-47F7-B20C-A941B8E2CFCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
         <v>2955</v>
       </c>
       <c r="C2">
-        <v>363</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
